--- a/public/templates/template-sertifikat-lab.xlsx
+++ b/public/templates/template-sertifikat-lab.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Sertifikat" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,62 +397,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:BJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>certificateTitle</v>
+        <v>Judul Sertifikat</v>
       </c>
       <c r="B1" t="str">
-        <v>name</v>
+        <v>Nama Peserta</v>
       </c>
       <c r="C1" t="str">
-        <v>program</v>
+        <v>Nama Program</v>
       </c>
       <c r="D1" t="str">
-        <v>subtitle</v>
+        <v>Subjudul</v>
       </c>
       <c r="E1" t="str">
-        <v>meetings</v>
+        <v>Jumlah Pertemuan</v>
       </c>
       <c r="F1" t="str">
-        <v>totalScore</v>
+        <v>Nilai Total</v>
       </c>
       <c r="G1" t="str">
-        <v>materials</v>
+        <v>Jumlah Materi</v>
       </c>
       <c r="H1" t="str">
-        <v>attendanceRate</v>
+        <v>Persentase Kehadiran</v>
       </c>
       <c r="I1" t="str">
-        <v>assignmentCompletion</v>
+        <v>Penyelesaian Tugas</v>
       </c>
       <c r="J1" t="str">
-        <v>participationScore</v>
+        <v>Skor Partisipasi</v>
       </c>
       <c r="K1" t="str">
-        <v>overallGrade</v>
+        <v>Nilai Akhir</v>
       </c>
       <c r="L1" t="str">
-        <v>gradesBreakdown</v>
+        <v>Mata Kuliah 1</v>
       </c>
       <c r="M1" t="str">
-        <v>competencies</v>
+        <v>Nilai MK1</v>
       </c>
       <c r="N1" t="str">
-        <v>weeklyData</v>
+        <v>Skor MK1</v>
       </c>
       <c r="O1" t="str">
-        <v>technologies</v>
+        <v>Mata Kuliah 2</v>
       </c>
       <c r="P1" t="str">
-        <v>instructorFeedback</v>
+        <v>Nilai MK2</v>
       </c>
       <c r="Q1" t="str">
-        <v>futureRecommendations</v>
+        <v>Skor MK2</v>
+      </c>
+      <c r="R1" t="str">
+        <v>Mata Kuliah 3</v>
+      </c>
+      <c r="S1" t="str">
+        <v>Nilai MK3</v>
+      </c>
+      <c r="T1" t="str">
+        <v>Skor MK3</v>
+      </c>
+      <c r="U1" t="str">
+        <v>Mata Kuliah 4</v>
+      </c>
+      <c r="V1" t="str">
+        <v>Nilai MK4</v>
+      </c>
+      <c r="W1" t="str">
+        <v>Skor MK4</v>
+      </c>
+      <c r="X1" t="str">
+        <v>Kompetensi 1</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>Nilai Kompetensi 1</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>Level Kompetensi 1</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>Kompetensi 2</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>Nilai Kompetensi 2</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>Level Kompetensi 2</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>Kompetensi 3</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>Nilai Kompetensi 3</v>
+      </c>
+      <c r="AF1" t="str">
+        <v>Level Kompetensi 3</v>
+      </c>
+      <c r="AG1" t="str">
+        <v>Kompetensi 4</v>
+      </c>
+      <c r="AH1" t="str">
+        <v>Nilai Kompetensi 4</v>
+      </c>
+      <c r="AI1" t="str">
+        <v>Level Kompetensi 4</v>
+      </c>
+      <c r="AJ1" t="str">
+        <v>Kompetensi 5</v>
+      </c>
+      <c r="AK1" t="str">
+        <v>Nilai Kompetensi 5</v>
+      </c>
+      <c r="AL1" t="str">
+        <v>Level Kompetensi 5</v>
+      </c>
+      <c r="AM1" t="str">
+        <v>Kompetensi 6</v>
+      </c>
+      <c r="AN1" t="str">
+        <v>Nilai Kompetensi 6</v>
+      </c>
+      <c r="AO1" t="str">
+        <v>Level Kompetensi 6</v>
+      </c>
+      <c r="AP1" t="str">
+        <v>Kecepatan Belajar</v>
+      </c>
+      <c r="AQ1" t="str">
+        <v>Skor Kolaborasi</v>
+      </c>
+      <c r="AR1" t="str">
+        <v>Efisiensi Pemecahan Masalah</v>
+      </c>
+      <c r="AS1" t="str">
+        <v>Minggu 1</v>
+      </c>
+      <c r="AT1" t="str">
+        <v>Minggu 2</v>
+      </c>
+      <c r="AU1" t="str">
+        <v>Minggu 3</v>
+      </c>
+      <c r="AV1" t="str">
+        <v>Minggu 4</v>
+      </c>
+      <c r="AW1" t="str">
+        <v>Minggu 5</v>
+      </c>
+      <c r="AX1" t="str">
+        <v>Minggu 6</v>
+      </c>
+      <c r="AY1" t="str">
+        <v>Minggu 7</v>
+      </c>
+      <c r="AZ1" t="str">
+        <v>Minggu 8</v>
+      </c>
+      <c r="BA1" t="str">
+        <v>Minggu 9</v>
+      </c>
+      <c r="BB1" t="str">
+        <v>Minggu 10</v>
+      </c>
+      <c r="BC1" t="str">
+        <v>Teknologi 1</v>
+      </c>
+      <c r="BD1" t="str">
+        <v>Teknologi 2</v>
+      </c>
+      <c r="BE1" t="str">
+        <v>Teknologi 3</v>
+      </c>
+      <c r="BF1" t="str">
+        <v>Teknologi 4</v>
+      </c>
+      <c r="BG1" t="str">
+        <v>Catatan Instruktur</v>
+      </c>
+      <c r="BH1" t="str">
+        <v>Rekomendasi 1</v>
+      </c>
+      <c r="BI1" t="str">
+        <v>Rekomendasi 2</v>
+      </c>
+      <c r="BJ1" t="str">
+        <v>Rekomendasi 3</v>
       </c>
     </row>
     <row r="2">
@@ -460,13 +595,13 @@
         <v>Backend Developer I</v>
       </c>
       <c r="B2" t="str">
-        <v>Asygar</v>
+        <v>Ahmad Rizki Pratama</v>
       </c>
       <c r="C2" t="str">
         <v>Backend Developer Nest JS</v>
       </c>
       <c r="D2" t="str">
-        <v>Atas keberhasilan menyelesaikan Laboratorium</v>
+        <v>Telah berhasil menyelesaikan program pelatihan dan memenuhi standar kompetensi profesional dalam bidang pengembangan perangkat lunak sesuai dengan kurikulum yang telah ditetapkan oleh Laboratorium Informatika.</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -490,80 +625,162 @@
         <v>A</v>
       </c>
       <c r="L2" t="str">
-        <v>[{"subject":"Praktikum Backend","grade":"A+","score":95},{"subject":"Database Design","grade":"A","score":90},{"subject":"API Development","grade":"A-","score":87},{"subject":"Server Management","grade":"B+","score":85}]</v>
+        <v>Praktikum Backend</v>
       </c>
       <c r="M2" t="str">
-        <v>[{"name":"Keterampilan Pemrograman (KP)","value":35,"startColor":"#3b82f6","endColor":"#1d4ed8","shadowColor":"rgba(59,130,246,0.4)","bgColor":"#3b82f6","level":"Expert"},{"name":"Kemampuan Analisis dan Evaluasi (KAE)","value":30,"startColor":"#06b6d4","endColor":"#0891b2","shadowColor":"rgba(6,182,212,0.4)","bgColor":"#06b6d4","level":"Advanced"},{"name":"Kreativitas dalam Pemecahan Masalah (KPM)","value":25,"startColor":"#10b981","endColor":"#059669","shadowColor":"rgba(16,185,129,0.4)","bgColor":"#10b981","level":"Advanced"},{"name":"Keterampilan Komunikasi (KK)","value":20,"startColor":"#6b7280","endColor":"#4b5563","shadowColor":"rgba(107,114,128,0.4)","bgColor":"#6b7280","level":"Intermediate"},{"name":"Etika dan Komunikasi Profesional","value":15,"startColor":"#ef4444","endColor":"#dc2626","shadowColor":"rgba(239,68,68,0.4)","bgColor":"#ef4444","level":"Intermediate"},{"name":"Kerja Tim","value":10,"startColor":"#f97316","endColor":"#ea580c","shadowColor":"rgba(249,115,22,0.4)","bgColor":"#f97316","level":"Beginner"}]</v>
-      </c>
-      <c r="N2" t="str">
-        <v>[45,52,38,61,47,55,43,38,52,45]</v>
+        <v>A+</v>
+      </c>
+      <c r="N2">
+        <v>95</v>
       </c>
       <c r="O2" t="str">
-        <v>Typescript,NodeJS,Docker,PostgreSQL</v>
+        <v>Desain Database</v>
       </c>
       <c r="P2" t="str">
-        <v>Menunjukkan pemahaman yang sangat baik dalam pengembangan backend dan kemampuan problem-solving yang excellent.</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>Advanced Microservices,Cloud Architecture,DevOps Practices</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Nama Sertifikat</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Nama Peserta</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Nama Program</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Subjudul Sertifikat</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="str">
         <v>A</v>
       </c>
-      <c r="L3" t="str">
-        <v>[{"subject":"Praktikum Backend","grade":"A+","score":95},{"subject":"Database Design","grade":"A","score":90}]</v>
-      </c>
-      <c r="M3" t="str">
-        <v>[{"name":"Keterampilan Pemrograman (KP)","value":35,"startColor":"#3b82f6","endColor":"#1d4ed8","shadowColor":"rgba(59,130,246,0.4)","bgColor":"#3b82f6","level":"Expert"},{"name":"Kemampuan Analisis dan Evaluasi (KAE)","value":30,"startColor":"#06b6d4","endColor":"#0891b2","shadowColor":"rgba(6,182,212,0.4)","bgColor":"#06b6d4","level":"Advanced"},{"name":"Kreativitas dalam Pemecahan Masalah (KPM)","value":25,"startColor":"#10b981","endColor":"#059669","shadowColor":"rgba(16,185,129,0.4)","bgColor":"#10b981","level":"Advanced"},{"name":"Keterampilan Komunikasi (KK)","value":20,"startColor":"#6b7280","endColor":"#4b5563","shadowColor":"rgba(107,114,128,0.4)","bgColor":"#6b7280","level":"Intermediate"},{"name":"Etika dan Komunikasi Profesional","value":15,"startColor":"#ef4444","endColor":"#dc2626","shadowColor":"rgba(239,68,68,0.4)","bgColor":"#ef4444","level":"Intermediate"},{"name":"Kerja Tim","value":10,"startColor":"#f97316","endColor":"#ea580c","shadowColor":"rgba(249,115,22,0.4)","bgColor":"#f97316","level":"Beginner"}]</v>
-      </c>
-      <c r="N3" t="str">
-        <v>[45,52,38,61,47,55,43,38,52,45]</v>
-      </c>
-      <c r="O3" t="str">
-        <v>Typescript,NodeJS,Docker,PostgreSQL</v>
-      </c>
-      <c r="P3" t="str">
-        <v>Tulis umpan balik instruktur di sini.</v>
-      </c>
-      <c r="Q3" t="str">
-        <v>Advanced Microservices,Cloud Architecture</v>
+      <c r="Q2">
+        <v>90</v>
+      </c>
+      <c r="R2" t="str">
+        <v>Pengembangan API</v>
+      </c>
+      <c r="S2" t="str">
+        <v>A-</v>
+      </c>
+      <c r="T2">
+        <v>87</v>
+      </c>
+      <c r="U2" t="str">
+        <v>Manajemen Server</v>
+      </c>
+      <c r="V2" t="str">
+        <v>B+</v>
+      </c>
+      <c r="W2">
+        <v>85</v>
+      </c>
+      <c r="X2" t="str">
+        <v>Keterampilan Pemrograman</v>
+      </c>
+      <c r="Y2">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="str">
+        <v>Expert</v>
+      </c>
+      <c r="AA2" t="str">
+        <v>Analisis dan Evaluasi</v>
+      </c>
+      <c r="AB2">
+        <v>30</v>
+      </c>
+      <c r="AC2" t="str">
+        <v>Advanced</v>
+      </c>
+      <c r="AD2" t="str">
+        <v>Pemecahan Masalah Kreatif</v>
+      </c>
+      <c r="AE2">
+        <v>25</v>
+      </c>
+      <c r="AF2" t="str">
+        <v>Advanced</v>
+      </c>
+      <c r="AG2" t="str">
+        <v>Keterampilan Komunikasi</v>
+      </c>
+      <c r="AH2">
+        <v>20</v>
+      </c>
+      <c r="AI2" t="str">
+        <v>Intermediate</v>
+      </c>
+      <c r="AJ2" t="str">
+        <v>Etika Profesional</v>
+      </c>
+      <c r="AK2">
+        <v>15</v>
+      </c>
+      <c r="AL2" t="str">
+        <v>Intermediate</v>
+      </c>
+      <c r="AM2" t="str">
+        <v>Kerja Tim</v>
+      </c>
+      <c r="AN2">
+        <v>10</v>
+      </c>
+      <c r="AO2" t="str">
+        <v>Beginner</v>
+      </c>
+      <c r="AP2">
+        <v>85</v>
+      </c>
+      <c r="AQ2">
+        <v>78</v>
+      </c>
+      <c r="AR2">
+        <v>92</v>
+      </c>
+      <c r="AS2">
+        <v>45</v>
+      </c>
+      <c r="AT2">
+        <v>52</v>
+      </c>
+      <c r="AU2">
+        <v>38</v>
+      </c>
+      <c r="AV2">
+        <v>61</v>
+      </c>
+      <c r="AW2">
+        <v>47</v>
+      </c>
+      <c r="AX2">
+        <v>55</v>
+      </c>
+      <c r="AY2">
+        <v>43</v>
+      </c>
+      <c r="AZ2">
+        <v>38</v>
+      </c>
+      <c r="BA2">
+        <v>52</v>
+      </c>
+      <c r="BB2">
+        <v>45</v>
+      </c>
+      <c r="BC2" t="str">
+        <v>TypeScript</v>
+      </c>
+      <c r="BD2" t="str">
+        <v>NodeJS</v>
+      </c>
+      <c r="BE2" t="str">
+        <v>Docker</v>
+      </c>
+      <c r="BF2" t="str">
+        <v>PostgreSQL</v>
+      </c>
+      <c r="BG2" t="str">
+        <v>Peserta menunjukkan pemahaman yang sangat baik dalam pengembangan backend dan kemampuan problem-solving yang excellent.</v>
+      </c>
+      <c r="BH2" t="str">
+        <v>Microservices Lanjutan</v>
+      </c>
+      <c r="BI2" t="str">
+        <v>Arsitektur Cloud</v>
+      </c>
+      <c r="BJ2" t="str">
+        <v>Praktik DevOps</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BJ2"/>
   </ignoredErrors>
 </worksheet>
 </file>